--- a/PRODUCTOS/NUESTROS/d1_mod.xlsx
+++ b/PRODUCTOS/NUESTROS/d1_mod.xlsx
@@ -9,16 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11208" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11208"/>
   </bookViews>
   <sheets>
     <sheet name="d1_mod" sheetId="5" r:id="rId1"/>
-    <sheet name="d1_mod_5_percent" sheetId="7" r:id="rId2"/>
-    <sheet name="d1_mod_3_mer" sheetId="8" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="9" r:id="rId2"/>
+    <sheet name="d1_mod_5_percent" sheetId="7" r:id="rId3"/>
+    <sheet name="d1_mod_3_mer" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">d1_mod!$A$1:$O$34</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">d1_mod_3_mer!$A$1:$P$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">d1_mod!$A$1:$Q$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">d1_mod_3_mer!$A$1:$P$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja1!$B$1:$C$34</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="85">
   <si>
     <t>dominio</t>
   </si>
@@ -276,6 +278,15 @@
   </si>
   <si>
     <t>GRUPO</t>
+  </si>
+  <si>
+    <t>LI</t>
+  </si>
+  <si>
+    <t>LS</t>
+  </si>
+  <si>
+    <t>id_mer</t>
   </si>
 </sst>
 </file>
@@ -298,7 +309,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -323,6 +334,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -337,13 +354,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -360,951 +382,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-EC"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>d1_mod!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>mer</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>d1_mod!$A$2:$A$37</c:f>
-              <c:strCache>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>1_p</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2_p</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3_p</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4_p</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5_p</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6_p</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7_p</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8_p</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9_p</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10_p</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11_p</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12_p</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13_p</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>17_p</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>18_p</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>20_p</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>23_p</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>24_p</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>d1_mod!$E$2:$E$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.5537885859424595E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.6543865182679199E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.3457365543628E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.0817951465539495E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.5499999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.58330783605804E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.2825443665839298E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.3000000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.5000000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8.0599271675984394E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6.0193903569600603E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="-1494371248"/>
-        <c:axId val="-1494360368"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="-1494371248"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-EC"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1494360368"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-1494360368"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-EC"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1494371248"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-EC"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>311728</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>20782</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>145473</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>62345</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1570,20 +647,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" activeCellId="1" sqref="A1:A1048576 E1:E1048576"/>
+      <selection pane="bottomLeft" activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="11.5546875" style="1"/>
+    <col min="1" max="4" width="11.5546875" style="1"/>
+    <col min="5" max="5" width="4.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="14" width="11.5546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="27.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5546875" style="1"/>
+    <col min="17" max="17" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1596,7 +678,7 @@
       <c r="D1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="9" t="s">
         <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1629,8 +711,14 @@
       <c r="O1" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -1643,8 +731,8 @@
       <c r="D2" s="1">
         <v>3.12257918146741</v>
       </c>
-      <c r="E2" s="2">
-        <v>0.05</v>
+      <c r="E2" s="10">
+        <v>5.9725E-2</v>
       </c>
       <c r="F2" s="1">
         <v>1.9723256831115801</v>
@@ -1676,8 +764,16 @@
       <c r="O2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P2" s="6">
+        <f>B$2-(E$2*B$2)</f>
+        <v>149.05268619589327</v>
+      </c>
+      <c r="Q2" s="6">
+        <f>B2+(E2*B2)</f>
+        <v>167.98793744270876</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>49</v>
       </c>
@@ -1690,8 +786,8 @@
       <c r="D3" s="1">
         <v>6.96618635073132</v>
       </c>
-      <c r="E3">
-        <v>0.1</v>
+      <c r="E3" s="10">
+        <v>0.11945</v>
       </c>
       <c r="F3" s="1">
         <v>4.26866158740145</v>
@@ -1723,8 +819,16 @@
       <c r="O3" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P3" s="6">
+        <f>B3-(E3*B3)</f>
+        <v>105.70204530176292</v>
+      </c>
+      <c r="Q3" s="6">
+        <f>B3+(E3*B3)</f>
+        <v>134.37982466987509</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>50</v>
       </c>
@@ -1737,8 +841,8 @@
       <c r="D4" s="1">
         <v>6.9943175992214899</v>
       </c>
-      <c r="E4">
-        <v>8.5537885859424595E-2</v>
+      <c r="E4" s="10">
+        <v>0.102175004659083</v>
       </c>
       <c r="F4" s="1">
         <v>3.93009664356688</v>
@@ -1770,8 +874,16 @@
       <c r="O4" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P4" s="6">
+        <f>B4-(E4*B4)</f>
+        <v>143.89132115631264</v>
+      </c>
+      <c r="Q4" s="6">
+        <f>B4+(E4*B4)</f>
+        <v>176.64179365561137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
@@ -1784,8 +896,8 @@
       <c r="D5" s="1">
         <v>4.2066238609935098</v>
       </c>
-      <c r="E5">
-        <v>6.6543865182679199E-2</v>
+      <c r="E5" s="10">
+        <v>7.9486646960710297E-2</v>
       </c>
       <c r="F5" s="1">
         <v>2.3711015348362401</v>
@@ -1817,8 +929,16 @@
       <c r="O5" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P5" s="6">
+        <f>B5-(E5*B5)</f>
+        <v>114.05434163270681</v>
+      </c>
+      <c r="Q5" s="6">
+        <f>B5+(E5*B5)</f>
+        <v>133.75160546437718</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>52</v>
       </c>
@@ -1831,8 +951,8 @@
       <c r="D6" s="1">
         <v>4.83974423234889</v>
       </c>
-      <c r="E6">
-        <v>7.3457365543628E-2</v>
+      <c r="E6" s="10">
+        <v>8.7928466555722701E-2</v>
       </c>
       <c r="F6" s="1">
         <v>2.5986119216447001</v>
@@ -1864,8 +984,16 @@
       <c r="O6" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P6" s="6">
+        <f>B6-(E6*B6)</f>
+        <v>117.78013144339559</v>
+      </c>
+      <c r="Q6" s="6">
+        <f>B6+(E6*B6)</f>
+        <v>140.48937292019241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>53</v>
       </c>
@@ -1878,8 +1006,8 @@
       <c r="D7" s="1">
         <v>4.4678205846766597</v>
       </c>
-      <c r="E7">
-        <v>8.0817951465539495E-2</v>
+      <c r="E7" s="10">
+        <v>9.6537043025586897E-2</v>
       </c>
       <c r="F7" s="1">
         <v>3.08288013826636</v>
@@ -1911,8 +1039,16 @@
       <c r="O7" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P7" s="6">
+        <f>B7-(E7*B7)</f>
+        <v>97.893602027678284</v>
+      </c>
+      <c r="Q7" s="6">
+        <f>B7+(E7*B7)</f>
+        <v>118.81390384619171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>54</v>
       </c>
@@ -1925,8 +1061,8 @@
       <c r="D8" s="1">
         <v>3.0761841385494302</v>
       </c>
-      <c r="E8" s="2">
-        <v>0.05</v>
+      <c r="E8" s="10">
+        <v>5.9725E-2</v>
       </c>
       <c r="F8" s="1">
         <v>1.89019129911535</v>
@@ -1958,8 +1094,16 @@
       <c r="O8" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P8" s="6">
+        <f>B8-(E8*B8)</f>
+        <v>151.06026708944057</v>
+      </c>
+      <c r="Q8" s="6">
+        <f>B8+(E8*B8)</f>
+        <v>170.2505559983594</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>55</v>
       </c>
@@ -1972,8 +1116,8 @@
       <c r="D9" s="1">
         <v>3.0410684088828401</v>
       </c>
-      <c r="E9" s="3">
-        <v>0.06</v>
+      <c r="E9" s="10">
+        <v>7.2059399999999996E-2</v>
       </c>
       <c r="F9" s="1">
         <v>2.5051589562060599</v>
@@ -2005,8 +1149,16 @@
       <c r="O9" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P9" s="6">
+        <f>B9-(E9*B9)</f>
+        <v>126.06254611114146</v>
+      </c>
+      <c r="Q9" s="6">
+        <f>B9+(E9*B9)</f>
+        <v>145.64136707283058</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>56</v>
       </c>
@@ -2019,8 +1171,8 @@
       <c r="D10" s="1">
         <v>2.3010415074415</v>
       </c>
-      <c r="E10" s="5">
-        <v>2.5499999999999998E-2</v>
+      <c r="E10" s="10">
+        <v>3.0523499999999999E-2</v>
       </c>
       <c r="F10" s="1">
         <v>1.77911781835199</v>
@@ -2052,8 +1204,16 @@
       <c r="O10" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P10" s="6">
+        <f>B10-(E10*B10)</f>
+        <v>164.83838145593427</v>
+      </c>
+      <c r="Q10" s="6">
+        <f>B10+(E10*B10)</f>
+        <v>175.21809532495575</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>57</v>
       </c>
@@ -2066,8 +1226,8 @@
       <c r="D11" s="1">
         <v>3.7149427417849101</v>
       </c>
-      <c r="E11">
-        <v>5.58330783605804E-2</v>
+      <c r="E11" s="10">
+        <v>6.6692612101713303E-2</v>
       </c>
       <c r="F11" s="1">
         <v>1.6700901254540099</v>
@@ -2099,8 +1259,16 @@
       <c r="O11" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P11" s="6">
+        <f>B11-(E11*B11)</f>
+        <v>121.71422161080032</v>
+      </c>
+      <c r="Q11" s="6">
+        <f>B11+(E11*B11)</f>
+        <v>139.10921810264364</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>58</v>
       </c>
@@ -2113,8 +1281,8 @@
       <c r="D12" s="1">
         <v>4.1053990759038603</v>
       </c>
-      <c r="E12" s="4">
-        <v>7.0000000000000007E-2</v>
+      <c r="E12" s="10">
+        <v>8.3614999999999995E-2</v>
       </c>
       <c r="F12" s="1">
         <v>3.1402093857700502</v>
@@ -2146,8 +1314,16 @@
       <c r="O12" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P12" s="6">
+        <f>B12-(E12*B12)</f>
+        <v>138.97571184460773</v>
+      </c>
+      <c r="Q12" s="6">
+        <f>B12+(E12*B12)</f>
+        <v>164.3372228817523</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>59</v>
       </c>
@@ -2160,8 +1336,8 @@
       <c r="D13" s="1">
         <v>3.3960105724999901</v>
       </c>
-      <c r="E13">
-        <v>4.2825443665839298E-2</v>
+      <c r="E13" s="10">
+        <v>5.1154992458845E-2</v>
       </c>
       <c r="F13" s="1">
         <v>1.5333082832926901</v>
@@ -2193,8 +1369,16 @@
       <c r="O13" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P13" s="6">
+        <f>B13-(E13*B13)</f>
+        <v>147.47503602616661</v>
+      </c>
+      <c r="Q13" s="6">
+        <f>B13+(E13*B13)</f>
+        <v>163.37665177126337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>60</v>
       </c>
@@ -2207,8 +1391,8 @@
       <c r="D14" s="1">
         <v>2.6151029941487001</v>
       </c>
-      <c r="E14" s="2">
-        <v>0.04</v>
+      <c r="E14" s="10">
+        <v>4.7780000000000003E-2</v>
       </c>
       <c r="F14" s="1">
         <v>2.3747491802234499</v>
@@ -2240,8 +1424,16 @@
       <c r="O14" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="P14" s="6">
+        <f>B14-(E14*B14)</f>
+        <v>146.7447766459199</v>
+      </c>
+      <c r="Q14" s="6">
+        <f>B14+(E14*B14)</f>
+        <v>161.4713428347041</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>61</v>
       </c>
@@ -2254,8 +1446,8 @@
       <c r="D15" s="1">
         <v>11.4544511574993</v>
       </c>
-      <c r="E15">
-        <v>0.13700000000000001</v>
+      <c r="E15" s="10">
+        <v>0.1636465</v>
       </c>
       <c r="F15" s="1">
         <v>8.0660547866364904</v>
@@ -2287,8 +1479,16 @@
       <c r="O15" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="P15" s="6">
+        <f>B15-(E15*B15)</f>
+        <v>116.60999796946086</v>
+      </c>
+      <c r="Q15" s="6">
+        <f>B15+(E15*B15)</f>
+        <v>162.24337675656315</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>62</v>
       </c>
@@ -2301,8 +1501,8 @@
       <c r="D16" s="1">
         <v>4.3445805004987497</v>
       </c>
-      <c r="E16">
-        <v>7.6453123880704202E-2</v>
+      <c r="E16" s="10">
+        <v>9.1323256475501199E-2</v>
       </c>
       <c r="F16" s="1">
         <v>1.79565460355474</v>
@@ -2334,8 +1534,16 @@
       <c r="O16" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="P16" s="6">
+        <f>B16-(E16*B16)</f>
+        <v>101.20875850636729</v>
+      </c>
+      <c r="Q16" s="6">
+        <f>B16+(E16*B16)</f>
+        <v>121.5519960251227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>63</v>
       </c>
@@ -2348,8 +1556,8 @@
       <c r="D17" s="1">
         <v>7.71190618558352</v>
       </c>
-      <c r="E17">
-        <v>0.1</v>
+      <c r="E17" s="10">
+        <v>0.1197</v>
       </c>
       <c r="F17" s="1">
         <v>4.0844251181634403</v>
@@ -2381,8 +1589,16 @@
       <c r="O17" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P17" s="6">
+        <f>B17-(E17*B17)</f>
+        <v>117.07783675281424</v>
+      </c>
+      <c r="Q17" s="6">
+        <f>B17+(E17*B17)</f>
+        <v>148.9174756470818</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>64</v>
       </c>
@@ -2395,8 +1611,8 @@
       <c r="D18" s="1">
         <v>2.36884242915851</v>
       </c>
-      <c r="E18">
-        <v>3.3000000000000002E-2</v>
+      <c r="E18" s="10">
+        <v>3.9501000000000001E-2</v>
       </c>
       <c r="F18" s="1">
         <v>1.77600418038102</v>
@@ -2428,8 +1644,16 @@
       <c r="O18" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P18" s="6">
+        <f>B18-(E18*B18)</f>
+        <v>137.42930272496287</v>
+      </c>
+      <c r="Q18" s="6">
+        <f>B18+(E18*B18)</f>
+        <v>148.73299983852311</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +1666,8 @@
       <c r="D19" s="1">
         <v>3.51805884877471</v>
       </c>
-      <c r="E19" s="3">
-        <v>6.5000000000000002E-2</v>
+      <c r="E19" s="10">
+        <v>7.7642500000000003E-2</v>
       </c>
       <c r="F19" s="1">
         <v>3.1368085565886901</v>
@@ -2475,8 +1699,16 @@
       <c r="O19" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="P19" s="6">
+        <f>B19-(E19*B19)</f>
+        <v>125.16735733921747</v>
+      </c>
+      <c r="Q19" s="6">
+        <f>B19+(E19*B19)</f>
+        <v>146.24011175864854</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>66</v>
       </c>
@@ -2489,8 +1721,8 @@
       <c r="D20" s="1">
         <v>9.8334631949295801</v>
       </c>
-      <c r="E20">
-        <v>0.1</v>
+      <c r="E20" s="10">
+        <v>0.1205379</v>
       </c>
       <c r="F20" s="1">
         <v>5.6062541567183501</v>
@@ -2522,8 +1754,16 @@
       <c r="O20" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P20" s="6">
+        <f>B20-(E20*B20)</f>
+        <v>144.15315791462587</v>
+      </c>
+      <c r="Q20" s="6">
+        <f>B20+(E20*B20)</f>
+        <v>183.66803623262814</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>67</v>
       </c>
@@ -2536,8 +1776,8 @@
       <c r="D21" s="1">
         <v>9.6321276351184206</v>
       </c>
-      <c r="E21">
-        <v>8.0599271675984394E-2</v>
+      <c r="E21" s="10">
+        <v>9.6957000000000002E-2</v>
       </c>
       <c r="F21" s="1">
         <v>1.66400916723763</v>
@@ -2569,8 +1809,16 @@
       <c r="O21" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="P21" s="6">
+        <f>B21-(E21*B21)</f>
+        <v>211.52203363694093</v>
+      </c>
+      <c r="Q21" s="6">
+        <f>B21+(E21*B21)</f>
+        <v>256.94299767815909</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>68</v>
       </c>
@@ -2583,8 +1831,8 @@
       <c r="D22" s="1">
         <v>7.0797774704377199</v>
       </c>
-      <c r="E22">
-        <v>9.6229282560080301E-2</v>
+      <c r="E22" s="10">
+        <v>0.116109</v>
       </c>
       <c r="F22" s="1">
         <v>3.2318436859744701</v>
@@ -2616,8 +1864,16 @@
       <c r="O22" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="P22" s="6">
+        <f>B22-(E22*B22)</f>
+        <v>127.4580126383326</v>
+      </c>
+      <c r="Q22" s="6">
+        <f>B22+(E22*B22)</f>
+        <v>160.9440926853614</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>69</v>
       </c>
@@ -2630,8 +1886,8 @@
       <c r="D23" s="1">
         <v>7.16680151205827</v>
       </c>
-      <c r="E23">
-        <v>9.1643430850066904E-2</v>
+      <c r="E23" s="10">
+        <v>0.109468078150405</v>
       </c>
       <c r="F23" s="1">
         <v>3.9478396269470899</v>
@@ -2663,8 +1919,16 @@
       <c r="O23" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P23" s="6">
+        <f>B23-(E23*B23)</f>
+        <v>136.49904102345886</v>
+      </c>
+      <c r="Q23" s="6">
+        <f>B23+(E23*B23)</f>
+        <v>170.05715909558114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>70</v>
       </c>
@@ -2677,8 +1941,8 @@
       <c r="D24" s="1">
         <v>3.2344286054562601</v>
       </c>
-      <c r="E24" s="2">
-        <v>0.06</v>
+      <c r="E24" s="10">
+        <v>7.1819999999999995E-2</v>
       </c>
       <c r="F24" s="1">
         <v>1.98222468053262</v>
@@ -2710,8 +1974,16 @@
       <c r="O24" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P24" s="6">
+        <f>B24-(E24*B24)</f>
+        <v>126.97468894285568</v>
+      </c>
+      <c r="Q24" s="6">
+        <f>B24+(E24*B24)</f>
+        <v>146.62458909126633</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>71</v>
       </c>
@@ -2724,8 +1996,8 @@
       <c r="D25" s="1">
         <v>5.5545139977358904</v>
       </c>
-      <c r="E25">
-        <v>6.0193903569600603E-2</v>
+      <c r="E25" s="10">
+        <v>7.1901617813887903E-2</v>
       </c>
       <c r="F25" s="1">
         <v>1.8525071097528001</v>
@@ -2757,8 +2029,16 @@
       <c r="O25" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="P25" s="6">
+        <f>B25-(E25*B25)</f>
+        <v>167.85861844579279</v>
+      </c>
+      <c r="Q25" s="6">
+        <f>B25+(E25*B25)</f>
+        <v>193.86729696935123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>72</v>
       </c>
@@ -2771,8 +2051,8 @@
       <c r="D26" s="1">
         <v>3.0477209413057702</v>
       </c>
-      <c r="E26">
-        <v>4.0728410405724197E-2</v>
+      <c r="E26" s="10">
+        <v>4.87519072556519E-2</v>
       </c>
       <c r="F26" s="1">
         <v>1.6672302584488199</v>
@@ -2804,8 +2084,16 @@
       <c r="O26" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="P26" s="6">
+        <f>B26-(E26*B26)</f>
+        <v>139.52368638688719</v>
+      </c>
+      <c r="Q26" s="6">
+        <f>B26+(E26*B26)</f>
+        <v>153.82499404906881</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>73</v>
       </c>
@@ -2818,8 +2106,8 @@
       <c r="D27" s="1">
         <v>2.93110875840084</v>
       </c>
-      <c r="E27">
-        <v>3.2782053192476797E-2</v>
+      <c r="E27" s="10">
+        <v>3.9240117671394702E-2</v>
       </c>
       <c r="F27" s="1">
         <v>1.5385169962956999</v>
@@ -2851,8 +2139,16 @@
       <c r="O27" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="P27" s="6">
+        <f>B27-(E27*B27)</f>
+        <v>168.38119698418436</v>
+      </c>
+      <c r="Q27" s="6">
+        <f>B27+(E27*B27)</f>
+        <v>182.13551396772763</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>74</v>
       </c>
@@ -2865,8 +2161,8 @@
       <c r="D28" s="1">
         <v>3.3819728443534598</v>
       </c>
-      <c r="E28">
-        <v>3.6864312019961001E-2</v>
+      <c r="E28" s="10">
+        <v>4.4289000000000002E-2</v>
       </c>
       <c r="F28" s="1">
         <v>1.2364650233234</v>
@@ -2898,8 +2194,16 @@
       <c r="O28" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="P28" s="6">
+        <f>B28-(E28*B28)</f>
+        <v>171.84885340346236</v>
+      </c>
+      <c r="Q28" s="6">
+        <f>B28+(E28*B28)</f>
+        <v>187.77629144359364</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>75</v>
       </c>
@@ -2912,8 +2216,8 @@
       <c r="D29" s="1">
         <v>3.1493485759659299</v>
       </c>
-      <c r="E29">
-        <v>3.6698988005466698E-2</v>
+      <c r="E29" s="10">
+        <v>4.3928688642543602E-2</v>
       </c>
       <c r="F29" s="1">
         <v>1.1948626628697101</v>
@@ -2945,8 +2249,16 @@
       <c r="O29" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="P29" s="6">
+        <f>B29-(E29*B29)</f>
+        <v>160.8192817296692</v>
+      </c>
+      <c r="Q29" s="6">
+        <f>B29+(E29*B29)</f>
+        <v>175.59763575179679</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>76</v>
       </c>
@@ -2959,8 +2271,8 @@
       <c r="D30" s="1">
         <v>3.90905316972546</v>
       </c>
-      <c r="E30">
-        <v>4.8571942028397097E-2</v>
+      <c r="E30" s="10">
+        <v>5.8293900000000003E-2</v>
       </c>
       <c r="F30" s="1">
         <v>2.1563328177385799</v>
@@ -2992,8 +2304,16 @@
       <c r="O30" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="P30" s="6">
+        <f>B30-(E30*B30)</f>
+        <v>148.55122582497307</v>
+      </c>
+      <c r="Q30" s="6">
+        <f>B30+(E30*B30)</f>
+        <v>166.94259082328495</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>77</v>
       </c>
@@ -3006,8 +2326,8 @@
       <c r="D31" s="1">
         <v>3.0794428683857098</v>
       </c>
-      <c r="E31">
-        <v>3.6347824043312202E-2</v>
+      <c r="E31" s="10">
+        <v>4.36905E-2</v>
       </c>
       <c r="F31" s="1">
         <v>1.28236785325285</v>
@@ -3039,8 +2359,16 @@
       <c r="O31" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="P31" s="6">
+        <f>B31-(E31*B31)</f>
+        <v>158.80271635718506</v>
+      </c>
+      <c r="Q31" s="6">
+        <f>B31+(E31*B31)</f>
+        <v>173.31301888791094</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>78</v>
       </c>
@@ -3053,8 +2381,8 @@
       <c r="D32" s="1">
         <v>3.2803442246430001</v>
       </c>
-      <c r="E32">
-        <v>4.4542716243244199E-2</v>
+      <c r="E32" s="10">
+        <v>5.3317631343163301E-2</v>
       </c>
       <c r="F32" s="1">
         <v>1.8168019412201299</v>
@@ -3086,8 +2414,16 @@
       <c r="O32" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="P32" s="6">
+        <f>B32-(E32*B32)</f>
+        <v>136.67420075793797</v>
+      </c>
+      <c r="Q32" s="6">
+        <f>B32+(E32*B32)</f>
+        <v>152.06932142649401</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>79</v>
       </c>
@@ -3100,8 +2436,8 @@
       <c r="D33" s="1">
         <v>2.6793393057011499</v>
       </c>
-      <c r="E33">
-        <v>2.9689940235913401E-2</v>
+      <c r="E33" s="10">
+        <v>3.5538858462388301E-2</v>
       </c>
       <c r="F33" s="1">
         <v>0.96694892563413104</v>
@@ -3133,8 +2469,16 @@
       <c r="O33" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="P33" s="6">
+        <f>B33-(E33*B33)</f>
+        <v>170.59221085079744</v>
+      </c>
+      <c r="Q33" s="6">
+        <f>B33+(E33*B33)</f>
+        <v>183.16431391458056</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>80</v>
       </c>
@@ -3147,8 +2491,8 @@
       <c r="D34" s="1">
         <v>3.4153709812904798</v>
       </c>
-      <c r="E34">
-        <v>3.5438493717874997E-2</v>
+      <c r="E34" s="10">
+        <v>4.2613199999999997E-2</v>
       </c>
       <c r="F34" s="1">
         <v>1.43373020703273</v>
@@ -3180,39 +2524,779 @@
       <c r="O34" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="P34" s="6">
+        <f>B34-(E34*B34)</f>
+        <v>180.85327305400207</v>
+      </c>
+      <c r="Q34" s="6">
+        <f>B34+(E34*B34)</f>
+        <v>196.95279875313392</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O34">
-    <filterColumn colId="14">
-      <filters>
-        <filter val="Azuay"/>
-        <filter val="Bolívar"/>
-        <filter val="Cañar"/>
-        <filter val="Carchi"/>
-        <filter val="Chimborazo"/>
-        <filter val="Cotopaxi"/>
-        <filter val="El Oro"/>
-        <filter val="Esmeraldas"/>
-        <filter val="Galápagos"/>
-        <filter val="Guayas"/>
-        <filter val="Imbabura"/>
-        <filter val="Loja"/>
-        <filter val="Los Rios"/>
-        <filter val="Manabí"/>
-        <filter val="Pichincha"/>
-        <filter val="Santa Elena"/>
-        <filter val="Santo Domingo de los Tsachilas"/>
-        <filter val="Tungurahua"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="8"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>5.9725E-2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C2" s="7">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <f>B2*1.1945</f>
+        <v>5.9725E-2</v>
+      </c>
+      <c r="E2" t="b">
+        <f>EXACT(A2,D2)</f>
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>5.9725E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0.11945</v>
+      </c>
+      <c r="B3">
+        <v>0.1</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D5" si="0">B3*1.1945</f>
+        <v>0.11945</v>
+      </c>
+      <c r="E3" t="b">
+        <f t="shared" ref="E3:E34" si="1">EXACT(A3,D3)</f>
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.11945</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0.102175004659083</v>
+      </c>
+      <c r="B4">
+        <v>8.5537885859424595E-2</v>
+      </c>
+      <c r="C4" s="7">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0.10217500465908266</v>
+      </c>
+      <c r="E4" t="b">
+        <f>EXACT(A4,D4)</f>
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.10217500465908266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>7.9486646960710297E-2</v>
+      </c>
+      <c r="B5">
+        <v>6.6543865182679199E-2</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>7.9486646960710297E-2</v>
+      </c>
+      <c r="E5" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>7.9486646960710297E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>8.7928466555722701E-2</v>
+      </c>
+      <c r="B6">
+        <v>7.3457365543628E-2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <f>B6*1.197</f>
+        <v>8.7928466555722715E-2</v>
+      </c>
+      <c r="E6" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>8.7928466555722715E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>9.6537043025586897E-2</v>
+      </c>
+      <c r="B7">
+        <v>8.0817951465539495E-2</v>
+      </c>
+      <c r="C7" s="7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7:D8" si="2">B7*1.1945</f>
+        <v>9.6537043025586924E-2</v>
+      </c>
+      <c r="E7" t="b">
+        <f>EXACT(A7,D7)</f>
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>9.6537043025586924E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5.9725E-2</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C8" s="7">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>5.9725E-2</v>
+      </c>
+      <c r="E8" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>5.9725E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7.2059399999999996E-2</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>7.1819999999999995E-2</v>
+      </c>
+      <c r="E9" t="b">
+        <f>EXACT(A9,D9)</f>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>7.1819999999999995E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>3.0523499999999999E-2</v>
+      </c>
+      <c r="B10" s="5">
+        <v>2.5499999999999998E-2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D9:D10" si="3">B10*1.197</f>
+        <v>3.0523499999999999E-2</v>
+      </c>
+      <c r="E10" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>3.0523499999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>6.6692612101713303E-2</v>
+      </c>
+      <c r="B11">
+        <v>5.58330783605804E-2</v>
+      </c>
+      <c r="C11" s="7">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ref="D11:D16" si="4">B11*1.1945</f>
+        <v>6.6692612101713289E-2</v>
+      </c>
+      <c r="E11" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>6.6692612101713289E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>8.3614999999999995E-2</v>
+      </c>
+      <c r="B12" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C12" s="7">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="4"/>
+        <v>8.3614999999999995E-2</v>
+      </c>
+      <c r="E12" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>8.3614999999999995E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>5.1154992458845E-2</v>
+      </c>
+      <c r="B13">
+        <v>4.2825443665839298E-2</v>
+      </c>
+      <c r="C13" s="7">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="4"/>
+        <v>5.1154992458845035E-2</v>
+      </c>
+      <c r="E13" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>5.1154992458845035E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>4.7780000000000003E-2</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="C14" s="7">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="4"/>
+        <v>4.7779999999999996E-2</v>
+      </c>
+      <c r="E14" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>4.7779999999999996E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>0.1636465</v>
+      </c>
+      <c r="B15">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="C15" s="7">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="4"/>
+        <v>0.1636465</v>
+      </c>
+      <c r="E15" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.1636465</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>9.1323256475501199E-2</v>
+      </c>
+      <c r="B16">
+        <v>7.6453123880704202E-2</v>
+      </c>
+      <c r="C16" s="7">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="4"/>
+        <v>9.1323256475501158E-2</v>
+      </c>
+      <c r="E16" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>9.1323256475501158E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>0.1197</v>
+      </c>
+      <c r="B17">
+        <v>0.1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ref="D17:D18" si="5">B17*1.197</f>
+        <v>0.11970000000000001</v>
+      </c>
+      <c r="E17" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.11970000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>3.9501000000000001E-2</v>
+      </c>
+      <c r="B18">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="5"/>
+        <v>3.9501000000000001E-2</v>
+      </c>
+      <c r="E18" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>3.9501000000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>7.7642500000000003E-2</v>
+      </c>
+      <c r="B19" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="C19" s="7">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <f>B19*1.1945</f>
+        <v>7.7642499999999989E-2</v>
+      </c>
+      <c r="E19" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>7.7642499999999989E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0.1205379</v>
+      </c>
+      <c r="B20">
+        <v>0.1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <f>B20*1.197</f>
+        <v>0.11970000000000001</v>
+      </c>
+      <c r="E20" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0.11970000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>9.6957000000000002E-2</v>
+      </c>
+      <c r="B21">
+        <v>8.0599271675984394E-2</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ref="D20:D22" si="6">B21*1.197</f>
+        <v>9.6477328196153331E-2</v>
+      </c>
+      <c r="E21" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>9.6477328196153331E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>0.116109</v>
+      </c>
+      <c r="B22">
+        <v>9.6229282560080301E-2</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="6"/>
+        <v>0.11518645122441612</v>
+      </c>
+      <c r="E22" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0.11518645122441612</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>0.109468078150405</v>
+      </c>
+      <c r="B23">
+        <v>9.1643430850066904E-2</v>
+      </c>
+      <c r="C23" s="7">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <f>B23*1.1945</f>
+        <v>0.10946807815040491</v>
+      </c>
+      <c r="E23" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.10946807815040491</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>7.1819999999999995E-2</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <f>B24*1.197</f>
+        <v>7.1819999999999995E-2</v>
+      </c>
+      <c r="E24" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>7.1819999999999995E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>7.1901617813887903E-2</v>
+      </c>
+      <c r="B25">
+        <v>6.0193903569600603E-2</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <f>B25*1.1945</f>
+        <v>7.1901617813887916E-2</v>
+      </c>
+      <c r="E25" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>7.1901617813887916E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>4.87519072556519E-2</v>
+      </c>
+      <c r="B26">
+        <v>4.0728410405724197E-2</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ref="D26:D34" si="7">B26*1.197</f>
+        <v>4.8751907255651865E-2</v>
+      </c>
+      <c r="E26" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>4.8751907255651865E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>3.9240117671394702E-2</v>
+      </c>
+      <c r="B27">
+        <v>3.2782053192476797E-2</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="7"/>
+        <v>3.9240117671394729E-2</v>
+      </c>
+      <c r="E27" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>3.9240117671394729E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>4.4289000000000002E-2</v>
+      </c>
+      <c r="B28">
+        <v>3.6864312019961001E-2</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="7"/>
+        <v>4.4126581487893321E-2</v>
+      </c>
+      <c r="E28" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>4.4126581487893321E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>4.3928688642543602E-2</v>
+      </c>
+      <c r="B29">
+        <v>3.6698988005466698E-2</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="7"/>
+        <v>4.3928688642543644E-2</v>
+      </c>
+      <c r="E29" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>4.3928688642543644E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>5.8293900000000003E-2</v>
+      </c>
+      <c r="B30">
+        <v>4.8571942028397097E-2</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="7"/>
+        <v>5.8140614607991331E-2</v>
+      </c>
+      <c r="E30" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>5.8140614607991331E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>4.36905E-2</v>
+      </c>
+      <c r="B31">
+        <v>3.6347824043312202E-2</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="7"/>
+        <v>4.3508345379844708E-2</v>
+      </c>
+      <c r="E31" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>4.3508345379844708E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>5.3317631343163301E-2</v>
+      </c>
+      <c r="B32">
+        <v>4.4542716243244199E-2</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="7"/>
+        <v>5.3317631343163308E-2</v>
+      </c>
+      <c r="E32" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>5.3317631343163308E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>3.5538858462388301E-2</v>
+      </c>
+      <c r="B33">
+        <v>2.9689940235913401E-2</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="7"/>
+        <v>3.5538858462388342E-2</v>
+      </c>
+      <c r="E33" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>3.5538858462388342E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>4.2613199999999997E-2</v>
+      </c>
+      <c r="B34">
+        <v>3.5438493717874997E-2</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="7"/>
+        <v>4.2419876980296374E-2</v>
+      </c>
+      <c r="E34" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>4.2419876980296374E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:C34"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O34"/>
   <sheetViews>
@@ -4830,12 +4914,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
